--- a/Электромеханика/Расчет момента_IGV.xlsx
+++ b/Электромеханика/Расчет момента_IGV.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет нагрузки" sheetId="9" r:id="rId1"/>
@@ -14,8 +14,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+На разгоне ты можешь развить момент машины равный пиковому при условии, что от источника ты можешь отнять такую мощность и что механика привода выдержит этот момент и ее не свернет. 
+По ускорениям. Мс тут нужно понимать не просто как момент обусловленный действием нагрузки, а как суммарный момент от действия нагрузки и трения в системе. В таком случае, выражение e_разгон (max) = (Mpeak – Mc) / Jсумм верное. С торможением аналогично, тут трение суммируется.
+Бормотов Артем</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
   <si>
     <t>об/мин</t>
   </si>
@@ -408,12 +446,30 @@
   <si>
     <t>мех. мощность на участке равномерного движения</t>
   </si>
+  <si>
+    <t>Мтр=</t>
+  </si>
+  <si>
+    <t>момент трения механизма (подшипники)</t>
+  </si>
+  <si>
+    <t>e_разг= [Mpeak-Mc-Mтр]/Jсумм</t>
+  </si>
+  <si>
+    <t>e_разг= [Mpeak+Mc+Mтр]/Jсумм</t>
+  </si>
+  <si>
+    <t>Мpeak=</t>
+  </si>
+  <si>
+    <t>пиковый момент двигателя (из pdf)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +500,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -540,6 +611,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -581,30 +676,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -709,11 +780,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69270528"/>
-        <c:axId val="70665344"/>
+        <c:axId val="67601536"/>
+        <c:axId val="67603456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69270528"/>
+        <c:axId val="67601536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -739,12 +810,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70665344"/>
+        <c:crossAx val="67603456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70665344"/>
+        <c:axId val="67603456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +841,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69270528"/>
+        <c:crossAx val="67601536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -779,7 +850,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -787,53 +858,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5122" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1304925" y="2409825"/>
-          <a:ext cx="1181100" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -855,7 +879,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -865,53 +889,6 @@
         <a:xfrm>
           <a:off x="8607492" y="184417"/>
           <a:ext cx="10286999" cy="2797265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5125" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1314450" y="3095625"/>
-          <a:ext cx="1295400" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,7 +926,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -996,7 +973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1043,7 +1020,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1093,7 +1070,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1387,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1479,325 +1456,353 @@
         <v>91</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="4">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="B11" s="4">
-        <v>84.5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <f>B11/B12</f>
-        <v>56.333333333333336</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="4">
+        <v>84.5</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <f>(B13/B7)*60</f>
-        <v>1352</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.5</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <f>B14/9.55</f>
-        <v>141.57068062827224</v>
+        <f>B13/B14</f>
+        <v>56.333333333333336</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <f>(B15/B7)*60</f>
+        <v>1352</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <f>B16/9.55</f>
+        <v>141.57068062827224</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B18" s="4">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="4">
-        <v>7.3350000000000004E-3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7.3350000000000004E-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21">
-        <f>B15/B20</f>
-        <v>566.28272251308897</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22">
-        <f>B12-B20*2</f>
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <f>B17/B22</f>
+        <v>566.28272251308897</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
+        <f>B14-B22*2</f>
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B26" s="4">
         <f>0.85</f>
         <v>0.85</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B27" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
         <v>72</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <f>B6*B7*10^(-3)/(2*3.14*B8)</f>
         <v>8.6252653927813174</v>
       </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31">
-        <f>ABS(B17*B21-B30)</f>
-        <v>4.4715816231478094</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32">
-        <f>B17*B21+B30</f>
-        <v>12.778949162414825</v>
-      </c>
       <c r="C32" t="s">
         <v>73</v>
       </c>
       <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <f>ABS(B19*B23-B32)</f>
+        <v>4.4715816231478094</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <f>B19*B23+B32</f>
+        <v>12.778949162414825</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="5">
-        <f>SQRT(  (B31^2*B20+B32^2*B20+B30*B22)/(2*B20+B22)  )</f>
+      <c r="B36" s="5">
+        <f>SQRT(  (B33^2*B22+B34^2*B22+B32*B24)/(2*B22+B24)  )</f>
         <v>6.0249155662020284</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38">
-        <f>B31/B25/B24</f>
-        <v>2.3912201193303795</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39">
-        <f>B32/B25/B24</f>
-        <v>6.8336626536977665</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40">
-        <f>B30/B25/B24</f>
-        <v>4.6124413865140728</v>
+        <f>B33/B27/B26</f>
+        <v>2.3912201193303795</v>
       </c>
       <c r="C40" t="s">
         <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="10">
-        <f>(B34/B24)/B25</f>
-        <v>3.2218799819262185</v>
+        <v>102</v>
+      </c>
+      <c r="B41">
+        <f>B34/B27/B26</f>
+        <v>6.8336626536977665</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
       </c>
       <c r="D41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42">
+        <f>B32/B27/B26</f>
+        <v>4.6124413865140728</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="10">
+        <f>(B36/B26)/B27</f>
+        <v>3.2218799819262185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="ДА">
-      <formula>NOT(ISERROR(SEARCH("ДА",H25)))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ДА">
+      <formula>NOT(ISERROR(SEARCH("ДА",H27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="НЕТ">
-      <formula>NOT(ISERROR(SEARCH("НЕТ",H25)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="НЕТ">
+      <formula>NOT(ISERROR(SEARCH("НЕТ",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1809,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1865,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7">
-        <f>'Расчет нагрузки'!B17</f>
+        <f>'Расчет нагрузки'!B19</f>
         <v>7.3350000000000004E-3</v>
       </c>
       <c r="D5" t="s">
@@ -1902,7 +1907,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="7">
-        <f>'Расчет нагрузки'!B30</f>
+        <f>'Расчет нагрузки'!B32</f>
         <v>8.6252653927813174</v>
       </c>
       <c r="E10" t="s">
@@ -1943,6 +1948,9 @@
       <c r="E23" s="2"/>
     </row>
     <row r="25" spans="1:11">
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
       <c r="E25">
         <f xml:space="preserve"> ('Расчет ускорения'!B9+'Расчет ускорения'!D10)/'Расчет ускорения'!C8</f>
         <v>1175.9053023560077</v>
@@ -1967,6 +1975,9 @@
       </c>
     </row>
     <row r="30" spans="1:11">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
       <c r="E30">
         <f>ABS(('Расчет ускорения'!B9-'Расчет ускорения'!D10)/'Расчет ускорения'!C8)</f>
         <v>1175.9053023560077</v>
@@ -1990,7 +2001,7 @@
         <v>77</v>
       </c>
       <c r="H35">
-        <f>'Расчет нагрузки'!B11/'Расчет нагрузки'!B7</f>
+        <f>'Расчет нагрузки'!B13/'Расчет нагрузки'!B7</f>
         <v>33.799999999999997</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -2083,7 +2094,7 @@
         <v>113</v>
       </c>
       <c r="B47">
-        <f>'Расчет нагрузки'!B12-('Расчет ускорения'!B45+'Расчет ускорения'!B46)</f>
+        <f>'Расчет нагрузки'!B14-('Расчет ускорения'!B45+'Расчет ускорения'!B46)</f>
         <v>1.0156469708302169</v>
       </c>
       <c r="C47" t="s">
@@ -2269,7 +2280,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <f>'Расчет нагрузки'!B30</f>
+        <f>'Расчет нагрузки'!B32</f>
         <v>8.6252653927813174</v>
       </c>
       <c r="C67" t="s">
@@ -2333,7 +2344,7 @@
         <v>101</v>
       </c>
       <c r="B75">
-        <f>B71/'Расчет нагрузки'!B25/'Расчет нагрузки'!B24</f>
+        <f>B71/'Расчет нагрузки'!B27/'Расчет нагрузки'!B26</f>
         <v>4.8947742864166512</v>
       </c>
       <c r="C75" t="s">
@@ -2348,7 +2359,7 @@
         <v>102</v>
       </c>
       <c r="B76">
-        <f>B69/'Расчет нагрузки'!B25/'Расчет нагрузки'!B24</f>
+        <f>B69/'Расчет нагрузки'!B27/'Расчет нагрузки'!B26</f>
         <v>7.4956232468107302</v>
       </c>
       <c r="C76" t="s">
@@ -2363,7 +2374,7 @@
         <v>103</v>
       </c>
       <c r="B77">
-        <f>B67/'Расчет нагрузки'!B25/'Расчет нагрузки'!B24</f>
+        <f>B67/'Расчет нагрузки'!B27/'Расчет нагрузки'!B26</f>
         <v>4.6124413865140728</v>
       </c>
       <c r="C77" t="s">
@@ -2378,7 +2389,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="10">
-        <f>B71/'Расчет нагрузки'!B25/'Расчет нагрузки'!B24</f>
+        <f>B71/'Расчет нагрузки'!B27/'Расчет нагрузки'!B26</f>
         <v>4.8947742864166512</v>
       </c>
       <c r="C78" t="s">
@@ -2413,7 +2424,7 @@
         <v>119</v>
       </c>
       <c r="B84">
-        <f>B83/'Расчет нагрузки'!B24</f>
+        <f>B83/'Расчет нагрузки'!B26</f>
         <v>1916.9063697589818</v>
       </c>
       <c r="C84" t="s">
@@ -2425,37 +2436,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E56:E57">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="НЕТ">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="НЕТ">
       <formula>NOT(ISERROR(SEARCH("НЕТ",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="ДА">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="ДА">
       <formula>NOT(ISERROR(SEARCH("ДА",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="НЕТ">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="НЕТ">
       <formula>NOT(ISERROR(SEARCH("НЕТ",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="ДА">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="ДА">
       <formula>NOT(ISERROR(SEARCH("ДА",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="greaterThan">
       <formula>$E$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="lessThan">
       <formula>$E$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="lessThan">
       <formula>456000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="greaterThan">
       <formula>$E$26</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>